--- a/Component_Functionality.xlsx
+++ b/Component_Functionality.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code Learning documents\React Docs\Project_Stockker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code Learning documents\React Docs\Project_Stockker\stockker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271079F2-64E5-4A3E-B15A-020591FCF416}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EEDA097-869F-4F91-A6A9-68A8899000C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6A7E7A66-6D7C-4470-B8FF-60C0638B9ECB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
   <si>
     <t>Component Name</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>Implement later</t>
+  </si>
+  <si>
+    <t>On change of slide show, Major ETF's are fixed</t>
   </si>
 </sst>
 </file>
@@ -472,7 +475,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -515,6 +518,9 @@
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
